--- a/外部設計関連/DB定義書_D4.xlsx
+++ b/外部設計関連/DB定義書_D4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76300065-5761-42F9-BD8C-ECD1EBA166ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB95CB3-1920-42F8-AC4B-5BD6687C0B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="m_users" sheetId="2" r:id="rId2"/>
     <sheet name="d_questions" sheetId="3" r:id="rId3"/>
     <sheet name="d_answers" sheetId="4" r:id="rId4"/>
+    <sheet name="m_template" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -453,6 +454,134 @@
     <rPh sb="0" eb="2">
       <t>ナカオカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(質問IDの最大値)+1</t>
+    <rPh sb="1" eb="3">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムで判定するためnull許容</t>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問投稿したユーザID</t>
+    <rPh sb="0" eb="4">
+      <t>シツモントウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未解決:0,解決済み:1</t>
+    <rPh sb="0" eb="3">
+      <t>ミカイケツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カイケツズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(回答IDの最大値)+1</t>
+    <rPh sb="1" eb="3">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答したユーザID</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの氏名</t>
+    <rPh sb="4" eb="6">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受講者、講師、事務局の3つ</t>
+    <rPh sb="0" eb="3">
+      <t>ジュコウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジムキョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講師や事務局も存在するためnullを許容</t>
+    <rPh sb="0" eb="2">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジムキョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>temp_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレート内容</t>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>temp_contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(テンプレートIDの最大値)+1</t>
+    <rPh sb="10" eb="13">
+      <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>primary key (temp_id))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_template</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートマスタ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -911,7 +1040,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -956,13 +1085,17 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44355</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -1030,9 +1163,15 @@
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1290,7 +1429,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1442,7 @@
     <col min="7" max="7" width="7.21875" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" customWidth="1"/>
     <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
@@ -1455,7 +1594,9 @@
         <v>33</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_name varchar (30),</v>
@@ -1479,7 +1620,9 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
@@ -1509,7 +1652,9 @@
         <v>33</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>user_category varchar (10),</v>
@@ -1535,7 +1680,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>company varchar (50)</v>
@@ -1828,7 +1975,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1965,9 +2112,11 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L14" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>q_id int ,</v>
       </c>
     </row>
@@ -2013,7 +2162,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="3">
-        <v>255</v>
+        <v>500</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2024,7 +2173,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>q_contents varchar (255),</v>
+        <v>q_contents varchar (500),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2047,7 +2196,9 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
         <v>q_tag01 varchar (30),</v>
@@ -2073,7 +2224,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
         <v>q_tag02 varchar (30),</v>
@@ -2099,7 +2252,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>q_tag03 varchar (30),</v>
@@ -2125,7 +2280,9 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="L16" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>q_tag04 varchar (30),</v>
@@ -2151,7 +2308,9 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="L17" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v>q_tag05 varchar (30),</v>
@@ -2179,7 +2338,9 @@
         <v>33</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="L18" t="str">
         <f t="shared" ref="L18:L30" si="1">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v>user_id varchar (30),</v>
@@ -2257,7 +2418,9 @@
       <c r="I21" s="3">
         <v>0</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
         <v>done_tag int ,</v>
@@ -2450,7 +2613,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2587,7 +2750,9 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>ans_id int ,</v>
@@ -2615,7 +2780,9 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>q_id int ,</v>
@@ -2635,16 +2802,18 @@
         <v>24</v>
       </c>
       <c r="E12" s="3">
-        <v>255</v>
+        <v>500</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>ans_contents varchar (255),</v>
+        <v>ans_contents varchar (500),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2669,7 +2838,9 @@
         <v>33</v>
       </c>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>user_id varchar (30)</v>
@@ -2987,4 +3158,518 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182DEC31-F4BA-4382-94D8-61BE83343ECC}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44355</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table m_template (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>temp_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3">
+        <v>500</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>temp_contents varchar (500)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/外部設計関連/DB定義書_D4.xlsx
+++ b/外部設計関連/DB定義書_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB95CB3-1920-42F8-AC4B-5BD6687C0B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890F7EA1-D672-48AC-8077-E6B0DE0D1CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="93">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -494,16 +494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(回答IDの最大値)+1</t>
-    <rPh sb="1" eb="3">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>サイダイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回答したユーザID</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
@@ -583,13 +573,20 @@
   <si>
     <t>テンプレートマスタ</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(回答IDの最大値)+1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,6 +608,14 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -671,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +699,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1164,10 +1172,10 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>55</v>
@@ -1428,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -1595,7 +1603,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1653,7 +1661,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -1681,7 +1689,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -1974,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C1F798-BB54-4AA5-B100-43D690B14155}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2359,7 +2367,7 @@
       <c r="D19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="8">
         <v>100</v>
       </c>
       <c r="F19" s="3"/>
@@ -2613,7 +2621,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2751,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -2772,7 +2780,9 @@
         <v>21</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>33</v>
@@ -2780,9 +2790,7 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>q_id int ,</v>
@@ -2839,7 +2847,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3183,7 +3191,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3219,7 +3227,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3233,7 +3241,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3283,10 +3291,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>21</v>
@@ -3303,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3315,10 +3323,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>24</v>
@@ -3664,7 +3672,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/外部設計関連/DB定義書_D4.xlsx
+++ b/外部設計関連/DB定義書_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890F7EA1-D672-48AC-8077-E6B0DE0D1CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE6C650-F254-46C7-9F04-DD4890DE5985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1047,7 +1046,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1982,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C1F798-BB54-4AA5-B100-43D690B14155}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2368,7 +2367,7 @@
         <v>24</v>
       </c>
       <c r="E19" s="8">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2377,7 +2376,7 @@
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>q_file varchar (100),</v>
+        <v>q_file varchar (255),</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">

--- a/外部設計関連/DB定義書_D4.xlsx
+++ b/外部設計関連/DB定義書_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE6C650-F254-46C7-9F04-DD4890DE5985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890F7EA1-D672-48AC-8077-E6B0DE0D1CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -613,6 +613,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1046,7 +1047,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1981,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C1F798-BB54-4AA5-B100-43D690B14155}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2367,7 +2368,7 @@
         <v>24</v>
       </c>
       <c r="E19" s="8">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2376,7 +2377,7 @@
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>q_file varchar (255),</v>
+        <v>q_file varchar (100),</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">

--- a/外部設計関連/DB定義書_D4.xlsx
+++ b/外部設計関連/DB定義書_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890F7EA1-D672-48AC-8077-E6B0DE0D1CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D057A9F-ADCC-48DF-8E53-BCC8043B232D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10080" yWindow="315" windowWidth="9915" windowHeight="10485" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1047,25 +1047,25 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="58.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1209,7 +1209,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1272,7 +1272,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1281,7 +1281,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1299,7 +1299,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1436,29 +1436,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>create table m_users (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>user_id varchar (30),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>user_name varchar (30),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>password varchar (30),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>user_category varchar (10),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>company varchar (50)</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>58</v>
       </c>
@@ -1982,29 +1982,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C1F798-BB54-4AA5-B100-43D690B14155}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2018,7 +2016,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2032,7 +2030,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2046,7 +2044,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2058,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2096,7 +2094,7 @@
         <v>create table d_questions (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2128,7 +2126,7 @@
         <v>q_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2156,7 +2154,7 @@
         <v>q_title varchar (80),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2184,7 +2182,7 @@
         <v>q_contents varchar (500),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2212,7 +2210,7 @@
         <v>q_tag01 varchar (30),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2240,7 +2238,7 @@
         <v>q_tag02 varchar (30),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2268,7 +2266,7 @@
         <v>q_tag03 varchar (30),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2296,7 +2294,7 @@
         <v>q_tag04 varchar (30),</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2324,7 +2322,7 @@
         <v>q_tag05 varchar (30),</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2354,7 +2352,7 @@
         <v>user_id varchar (30),</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2380,7 +2378,7 @@
         <v>q_file varchar (100),</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2406,7 +2404,7 @@
         <v>q_date date ,</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2434,7 +2432,7 @@
         <v>done_tag int ,</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2460,7 +2458,7 @@
         <v xml:space="preserve">counter int </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2478,7 +2476,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2496,7 +2494,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2514,7 +2512,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2532,7 +2530,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2550,7 +2548,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2568,7 +2566,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2586,7 +2584,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -2604,7 +2602,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L31" t="s">
         <v>56</v>
       </c>
@@ -2624,25 +2622,25 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2656,7 +2654,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2670,7 +2668,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2684,7 +2682,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2698,7 +2696,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2734,7 +2732,7 @@
         <v>create table d_answers (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2766,7 +2764,7 @@
         <v>ans_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2796,7 +2794,7 @@
         <v>q_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2824,7 +2822,7 @@
         <v>ans_contents varchar (500),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2854,7 +2852,7 @@
         <v>user_id varchar (30)</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2876,7 +2874,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2894,7 +2892,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2908,7 +2906,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2922,7 +2920,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2940,7 +2938,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2958,7 +2956,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2976,7 +2974,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2994,7 +2992,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3012,7 +3010,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3030,7 +3028,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3048,7 +3046,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3066,7 +3064,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3084,7 +3082,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3102,7 +3100,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3120,7 +3118,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3138,7 +3136,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -3156,7 +3154,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L31" t="s">
         <v>57</v>
       </c>
@@ -3176,25 +3174,25 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3208,7 +3206,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3222,7 +3220,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3236,7 +3234,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3250,7 +3248,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3286,7 +3284,7 @@
         <v>create table m_template (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3318,7 +3316,7 @@
         <v>temp_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3346,7 +3344,7 @@
         <v>temp_contents varchar (500)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3364,7 +3362,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3382,7 +3380,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3400,7 +3398,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3418,7 +3416,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3436,7 +3434,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3454,7 +3452,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3472,7 +3470,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3490,7 +3488,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3508,7 +3506,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3526,7 +3524,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3544,7 +3542,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3562,7 +3560,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3580,7 +3578,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3598,7 +3596,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3616,7 +3614,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3634,7 +3632,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3652,7 +3650,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3670,7 +3668,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L30" t="s">
         <v>88</v>
       </c>

--- a/外部設計関連/DB定義書_D4.xlsx
+++ b/外部設計関連/DB定義書_D4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D057A9F-ADCC-48DF-8E53-BCC8043B232D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C238E8-DEEA-4653-9156-76C43C6E18C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="315" windowWidth="9915" windowHeight="10485" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="93">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -613,7 +613,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1047,25 +1046,25 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1077,7 +1076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1089,7 +1088,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -1137,7 +1136,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -1152,7 +1151,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -1167,7 +1166,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -1182,7 +1181,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1191,7 +1190,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1200,7 +1199,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -1209,7 +1208,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -1218,7 +1217,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -1227,7 +1226,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -1236,7 +1235,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -1245,7 +1244,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -1254,7 +1253,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -1263,7 +1262,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -1272,7 +1271,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -1281,7 +1280,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -1290,7 +1289,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -1299,7 +1298,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -1308,7 +1307,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -1317,7 +1316,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -1326,7 +1325,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -1335,7 +1334,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -1344,7 +1343,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -1353,7 +1352,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -1362,7 +1361,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -1371,7 +1370,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -1380,7 +1379,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -1389,7 +1388,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -1398,7 +1397,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -1407,7 +1406,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -1416,7 +1415,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -1436,29 +1435,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1472,7 +1471,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1485,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1500,7 +1499,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1514,7 +1513,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>create table m_users (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>user_id varchar (30),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1610,7 +1609,7 @@
         <v>user_name varchar (30),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1638,7 +1637,7 @@
         <v>password varchar (30),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1668,7 +1667,7 @@
         <v>user_category varchar (10),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>company varchar (50)</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1786,7 +1785,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1840,7 +1839,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1876,7 +1875,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1894,7 +1893,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1912,7 +1911,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>58</v>
       </c>
@@ -1982,27 +1981,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C1F798-BB54-4AA5-B100-43D690B14155}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2016,7 +2017,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2030,7 +2031,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2040,11 +2041,13 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2054,11 +2057,13 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="7">
+        <v>44356</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2094,7 +2099,7 @@
         <v>create table d_questions (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2126,7 +2131,7 @@
         <v>q_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2154,7 +2159,7 @@
         <v>q_title varchar (80),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2182,7 +2187,7 @@
         <v>q_contents varchar (500),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2210,7 +2215,7 @@
         <v>q_tag01 varchar (30),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2238,7 +2243,7 @@
         <v>q_tag02 varchar (30),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2266,7 +2271,7 @@
         <v>q_tag03 varchar (30),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2294,7 +2299,7 @@
         <v>q_tag04 varchar (30),</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2322,7 +2327,7 @@
         <v>q_tag05 varchar (30),</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2352,7 +2357,7 @@
         <v>user_id varchar (30),</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2366,7 +2371,7 @@
         <v>24</v>
       </c>
       <c r="E19" s="8">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -2375,10 +2380,10 @@
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
-        <v>q_file varchar (100),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v>q_file varchar (255),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2404,7 +2409,7 @@
         <v>q_date date ,</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2432,7 +2437,7 @@
         <v>done_tag int ,</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2458,7 +2463,7 @@
         <v xml:space="preserve">counter int </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2476,7 +2481,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2494,7 +2499,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2512,7 +2517,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2530,7 +2535,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2548,7 +2553,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2566,7 +2571,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2584,7 +2589,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
         <v>56</v>
       </c>
@@ -2622,25 +2627,25 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2654,7 +2659,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2668,7 +2673,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2682,7 +2687,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2696,7 +2701,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2732,7 +2737,7 @@
         <v>create table d_answers (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -2764,7 +2769,7 @@
         <v>ans_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -2794,7 +2799,7 @@
         <v>q_id int ,</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -2822,7 +2827,7 @@
         <v>ans_contents varchar (500),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -2852,7 +2857,7 @@
         <v>user_id varchar (30)</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -2874,7 +2879,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -2892,7 +2897,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -2906,7 +2911,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -2920,7 +2925,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2938,7 +2943,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2956,7 +2961,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2974,7 +2979,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2992,7 +2997,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3010,7 +3015,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3028,7 +3033,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3046,7 +3051,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3064,7 +3069,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3082,7 +3087,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3100,7 +3105,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3136,7 +3141,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L31" t="s">
         <v>57</v>
       </c>
@@ -3174,25 +3179,25 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3206,7 +3211,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3220,7 +3225,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3234,7 +3239,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3248,7 +3253,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3284,7 +3289,7 @@
         <v>create table m_template (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -3316,7 +3321,7 @@
         <v>temp_id int ,</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -3344,7 +3349,7 @@
         <v>temp_contents varchar (500)</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -3362,7 +3367,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3380,7 +3385,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3398,7 +3403,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3416,7 +3421,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3434,7 +3439,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3452,7 +3457,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3470,7 +3475,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3488,7 +3493,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3506,7 +3511,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3524,7 +3529,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3542,7 +3547,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3560,7 +3565,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3578,7 +3583,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3596,7 +3601,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3614,7 +3619,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3632,7 +3637,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3650,7 +3655,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L30" t="s">
         <v>88</v>
       </c>
